--- a/ig/main/StructureDefinition-ror-period-closing-type.xlsx
+++ b/ig/main/StructureDefinition-ror-period-closing-type.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-period-closing-type</t>
+    <t>https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-period-closing-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30</t>
+    <t>2023-03-17T09:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour décrire le type de fermeture de l'entité géographique, au sens des règles de gestion du SI FINESS.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -335,7 +335,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J201-TypeFermeture-ROR/FHIR/JDV-J201-TypeFermeture-ROR/</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J201-TypeFermeture-ROR/FHIR/JDV-J201-TypeFermeture-ROR</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -676,7 +676,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="91.60546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="90.98828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>79</v>

--- a/ig/main/StructureDefinition-ror-period-closing-type.xlsx
+++ b/ig/main/StructureDefinition-ror-period-closing-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T09:52:06+00:00</t>
+    <t>2023-03-17T11:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-period-closing-type.xlsx
+++ b/ig/main/StructureDefinition-ror-period-closing-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T11:28:56+00:00</t>
+    <t>2023-03-19T15:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-period-closing-type.xlsx
+++ b/ig/main/StructureDefinition-ror-period-closing-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:24:51+00:00</t>
+    <t>2023-03-19T15:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-period-closing-type.xlsx
+++ b/ig/main/StructureDefinition-ror-period-closing-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:26+00:00</t>
+    <t>2023-03-19T15:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-period-closing-type.xlsx
+++ b/ig/main/StructureDefinition-ror-period-closing-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:59+00:00</t>
+    <t>2023-03-24T16:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-period-closing-type.xlsx
+++ b/ig/main/StructureDefinition-ror-period-closing-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T16:48:26+00:00</t>
+    <t>2023-04-06T16:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-period-closing-type.xlsx
+++ b/ig/main/StructureDefinition-ror-period-closing-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T16:24:50+00:00</t>
+    <t>2023-04-07T06:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-period-closing-type.xlsx
+++ b/ig/main/StructureDefinition-ror-period-closing-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T06:20:05+00:00</t>
+    <t>2023-04-07T09:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-period-closing-type.xlsx
+++ b/ig/main/StructureDefinition-ror-period-closing-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:27:55+00:00</t>
+    <t>2023-04-07T09:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
